--- a/data/trans_orig/P19D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Estudios-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>3649</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9357</v>
+        <v>9865</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003804972126249995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001090239159797877</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009757015869729473</v>
+        <v>0.01028692465809803</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -778,19 +778,19 @@
         <v>3649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10289</v>
+        <v>10353</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002212523784194622</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.000636769242132496</v>
+        <v>0.0006350926280062354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006238638774797545</v>
+        <v>0.006277692394771747</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>593777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>573293</v>
+        <v>575186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>609981</v>
+        <v>610780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8602920755419036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8306135325493386</v>
+        <v>0.8333562984254355</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.883769474000075</v>
+        <v>0.8849262484875091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>846</v>
@@ -828,19 +828,19 @@
         <v>854542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>833718</v>
+        <v>834589</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>872521</v>
+        <v>874490</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8911139822451568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8693991377172979</v>
+        <v>0.8703067666445805</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9098630463090981</v>
+        <v>0.9119157023910776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1447</v>
@@ -849,19 +849,19 @@
         <v>1448319</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1417695</v>
+        <v>1422442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1472103</v>
+        <v>1474939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8782144674524022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8596453241415314</v>
+        <v>0.8625238243390914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8926363273702417</v>
+        <v>0.8943563331407532</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>8184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3786</v>
+        <v>3754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15521</v>
+        <v>15257</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01185665060054741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005485779070575653</v>
+        <v>0.005439252474068789</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02248776003857955</v>
+        <v>0.02210447093010827</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -899,19 +899,19 @@
         <v>9887</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4511</v>
+        <v>4357</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19669</v>
+        <v>17603</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01031004926874607</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004704476479521706</v>
+        <v>0.004543037648954328</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.020511269128372</v>
+        <v>0.01835650334471302</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -920,19 +920,19 @@
         <v>18070</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10220</v>
+        <v>10763</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27910</v>
+        <v>28445</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01095732936566362</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006196982754512035</v>
+        <v>0.00652653987300918</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01692352297479923</v>
+        <v>0.01724805903840265</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>88243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72637</v>
+        <v>71882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107481</v>
+        <v>107141</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.127851273857549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1052401037543236</v>
+        <v>0.1041465214946855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1557238081752528</v>
+        <v>0.1552310449931628</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -970,19 +970,19 @@
         <v>90881</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74474</v>
+        <v>72870</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111062</v>
+        <v>110167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09477099635984715</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07766141611442087</v>
+        <v>0.07598901152440374</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.115815176918563</v>
+        <v>0.1148814425348586</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>177</v>
@@ -991,19 +991,19 @@
         <v>179125</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156367</v>
+        <v>154269</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>208378</v>
+        <v>205469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1086156793977396</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09481614967493561</v>
+        <v>0.0935440473494845</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1263537466740866</v>
+        <v>0.1245899790933588</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5382</v>
+        <v>6229</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001341902896560882</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004094789670401091</v>
+        <v>0.004738972753530269</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6704</v>
+        <v>6832</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001400177245058188</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.004881922085971001</v>
+        <v>0.004975259161478553</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1137,19 +1137,19 @@
         <v>3687</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>903</v>
+        <v>1018</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9097</v>
+        <v>9304</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001371676961248799</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0003360225894691396</v>
+        <v>0.0003787186017316191</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003384807615229988</v>
+        <v>0.003461733359503573</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>1216476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1195151</v>
+        <v>1195341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1234124</v>
+        <v>1234604</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.925465214735405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.909241697665472</v>
+        <v>0.9093860094638684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9388912051831441</v>
+        <v>0.9392564678522389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1241</v>
@@ -1187,19 +1187,19 @@
         <v>1266524</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1244211</v>
+        <v>1245656</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1285400</v>
+        <v>1286353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9223191227633076</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9060700438760895</v>
+        <v>0.9071221871317284</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9360654998842382</v>
+        <v>0.9367588149343614</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2427</v>
@@ -1208,19 +1208,19 @@
         <v>2483000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2454254</v>
+        <v>2452543</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2507959</v>
+        <v>2510153</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9238577845657534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9131623170274344</v>
+        <v>0.9125256336208482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9331443314436232</v>
+        <v>0.9339608694691509</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>22722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14017</v>
+        <v>13383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34846</v>
+        <v>33854</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01728606706611734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0106638117264927</v>
+        <v>0.01018153820964455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02650962908826957</v>
+        <v>0.02575529102683858</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1258,19 +1258,19 @@
         <v>23280</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15314</v>
+        <v>15031</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35975</v>
+        <v>34905</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01695331312851081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0111520727428192</v>
+        <v>0.01094609482579271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02619796654661591</v>
+        <v>0.02541909668006255</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -1279,19 +1279,19 @@
         <v>46002</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33715</v>
+        <v>33559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61515</v>
+        <v>63009</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01711605337194598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01254445803568779</v>
+        <v>0.01248658117434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02288819364511646</v>
+        <v>0.02344405428047583</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>73487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>57750</v>
+        <v>57852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90337</v>
+        <v>90752</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05590681530191676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04393487725955857</v>
+        <v>0.04401258772838907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06872581947754472</v>
+        <v>0.06904201754851544</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>79</v>
@@ -1329,19 +1329,19 @@
         <v>81468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64913</v>
+        <v>63916</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101136</v>
+        <v>99892</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05932738686312339</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04727182554969427</v>
+        <v>0.04654545703745883</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07365021419243134</v>
+        <v>0.07274451789812586</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>151</v>
@@ -1350,19 +1350,19 @@
         <v>154955</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134148</v>
+        <v>134874</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>178789</v>
+        <v>183236</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05765448510105185</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04991297880209068</v>
+        <v>0.05018286570119551</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0665226205264509</v>
+        <v>0.06817728913377483</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4390</v>
+        <v>4732</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001925403752479919</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009702263782403133</v>
+        <v>0.01045873842754333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6596</v>
+        <v>7292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002995704791826988</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01613641979648207</v>
+        <v>0.01783845128324857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8055</v>
+        <v>7987</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002433431136136157</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009353337455238375</v>
+        <v>0.009273988927551061</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>411703</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>396944</v>
+        <v>398417</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>423413</v>
+        <v>423330</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9099775645844956</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8773565830782998</v>
+        <v>0.8806112032805812</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9358589105948324</v>
+        <v>0.935675419612743</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>360</v>
@@ -1546,19 +1546,19 @@
         <v>379598</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>368656</v>
+        <v>366843</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>389330</v>
+        <v>388305</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9286063682806101</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.901837404944713</v>
+        <v>0.8974017437570855</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9524128977139125</v>
+        <v>0.9499047106844319</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>753</v>
@@ -1567,19 +1567,19 @@
         <v>791301</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>772468</v>
+        <v>771732</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>805104</v>
+        <v>805778</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9188198828243771</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8969515540882632</v>
+        <v>0.8960971100485713</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9348471021684651</v>
+        <v>0.9356295274266309</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>24970</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16676</v>
+        <v>16979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36007</v>
+        <v>35288</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05519066280029009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03685927137883131</v>
+        <v>0.03752891459594419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07958588050165888</v>
+        <v>0.07799521891729418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1617,19 +1617,19 @@
         <v>16521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9735</v>
+        <v>10297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26270</v>
+        <v>26437</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04041595318346963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02381529536642319</v>
+        <v>0.02518913493440345</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06426363046623834</v>
+        <v>0.06467175566877964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1638,19 +1638,19 @@
         <v>41491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30598</v>
+        <v>30565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55302</v>
+        <v>54854</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04817772270682543</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03552835878411949</v>
+        <v>0.03549089641532098</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06421345714335046</v>
+        <v>0.06369420830517145</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>14888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7830</v>
+        <v>7649</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26109</v>
+        <v>26019</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03290636886273439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01730659509009207</v>
+        <v>0.01690728477861669</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05770768791560573</v>
+        <v>0.0575098021755602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1688,19 +1688,19 @@
         <v>11439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6093</v>
+        <v>6012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18941</v>
+        <v>19640</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02798197374409328</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01490595391228798</v>
+        <v>0.01470715001263431</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0463362828033594</v>
+        <v>0.04804439061136383</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1709,19 +1709,19 @@
         <v>26326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16871</v>
+        <v>17009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39321</v>
+        <v>39515</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03056896333266132</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01959005888200014</v>
+        <v>0.0197498654317829</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0456576062389051</v>
+        <v>0.04588339186749402</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>2635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7836</v>
+        <v>7879</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001072399745460197</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.000352873296110889</v>
+        <v>0.0003540539245578476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003188954993628127</v>
+        <v>0.003206727287572992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1834,19 +1834,19 @@
         <v>6796</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2130</v>
+        <v>2428</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14023</v>
+        <v>14933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002479488326358917</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0007770843008509324</v>
+        <v>0.00088568602589808</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005116034289071539</v>
+        <v>0.005448081171732487</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1855,19 +1855,19 @@
         <v>9431</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4647</v>
+        <v>4776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17588</v>
+        <v>18140</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001814363146576517</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0008940175927872087</v>
+        <v>0.0009188427016454306</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003383573619569023</v>
+        <v>0.003489868164980896</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>2221956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2191134</v>
+        <v>2187643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2249120</v>
+        <v>2248414</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9043060430012227</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8917620579419266</v>
+        <v>0.8903410989718291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9153616284585351</v>
+        <v>0.9150739513123993</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2447</v>
@@ -1905,19 +1905,19 @@
         <v>2500664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2469626</v>
+        <v>2468762</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2529443</v>
+        <v>2530431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9123392065496956</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.901015269264122</v>
+        <v>0.9007001952954283</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9228386278390514</v>
+        <v>0.9231992664824866</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4627</v>
@@ -1926,19 +1926,19 @@
         <v>4722620</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4681638</v>
+        <v>4675509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4763967</v>
+        <v>4763300</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9085419620677692</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9006578229431329</v>
+        <v>0.899478724723315</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9164962040139774</v>
+        <v>0.916367924996874</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>55875</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41743</v>
+        <v>42692</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71831</v>
+        <v>71276</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0227404425092456</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01698889761415897</v>
+        <v>0.01737503496148966</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02923407359926145</v>
+        <v>0.02900841039081318</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -1976,19 +1976,19 @@
         <v>49688</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36849</v>
+        <v>37138</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>66000</v>
+        <v>66586</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01812828168666321</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01344384042809717</v>
+        <v>0.01354920616960035</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02407945747517348</v>
+        <v>0.02429331246279512</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>101</v>
@@ -1997,19 +1997,19 @@
         <v>105564</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>85501</v>
+        <v>86807</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>127338</v>
+        <v>124925</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02030843177667823</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01644879092950126</v>
+        <v>0.01670005178609766</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02449741058928227</v>
+        <v>0.02403317966338461</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>176618</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07188111474407147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -2047,19 +2047,19 @@
         <v>183788</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06705302343728228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>351</v>
@@ -2068,19 +2068,19 @@
         <v>360406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06933524300897614</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
     </row>
     <row r="23">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5475</v>
+        <v>5536</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001294777479491075</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007016345207397149</v>
+        <v>0.007094971512488567</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4572</v>
+        <v>5444</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0005290323046856978</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002393880183148505</v>
+        <v>0.00285065452515076</v>
       </c>
     </row>
     <row r="5">
@@ -2474,19 +2474,19 @@
         <v>560193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>531773</v>
+        <v>535332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>583580</v>
+        <v>584866</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.717941642200107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6815185539885884</v>
+        <v>0.6860789414383401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7479137274037918</v>
+        <v>0.7495616436281706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>871</v>
@@ -2495,19 +2495,19 @@
         <v>934573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>908855</v>
+        <v>907477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>958879</v>
+        <v>959243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8274894915251506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8047180306812006</v>
+        <v>0.8034982868539899</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8490104115195859</v>
+        <v>0.8493321446018122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1397</v>
@@ -2516,19 +2516,19 @@
         <v>1494767</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1456436</v>
+        <v>1453790</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1526773</v>
+        <v>1532223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7827294056263993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7626579077993654</v>
+        <v>0.7612719187338499</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7994895446608306</v>
+        <v>0.802343520052255</v>
       </c>
     </row>
     <row r="6">
@@ -2545,19 +2545,19 @@
         <v>12616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6345</v>
+        <v>6343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20904</v>
+        <v>21070</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01616837286480035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008131204132738721</v>
+        <v>0.008129425262542598</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02679103472389736</v>
+        <v>0.02700386915394782</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -2566,19 +2566,19 @@
         <v>20272</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12171</v>
+        <v>12381</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31139</v>
+        <v>31097</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01794937793759681</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01077670628472395</v>
+        <v>0.01096259613786155</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02757065573385275</v>
+        <v>0.02753416202059374</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -2587,19 +2587,19 @@
         <v>32888</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22458</v>
+        <v>23155</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45840</v>
+        <v>47813</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01722167821062227</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01176007267049079</v>
+        <v>0.01212503132644299</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02400411782835534</v>
+        <v>0.02503686581021727</v>
       </c>
     </row>
     <row r="7">
@@ -2616,19 +2616,19 @@
         <v>206458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183275</v>
+        <v>181416</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233888</v>
+        <v>232012</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2645952074556016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2348846540986296</v>
+        <v>0.2325017924121789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.299749705147869</v>
+        <v>0.2973460600541599</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -2637,19 +2637,19 @@
         <v>174563</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>151902</v>
+        <v>150511</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>201103</v>
+        <v>199747</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1545611305372525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1344966750094475</v>
+        <v>0.1332653037250382</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1780608268848508</v>
+        <v>0.176859638789958</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>358</v>
@@ -2658,19 +2658,19 @@
         <v>381020</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>349594</v>
+        <v>346563</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>420675</v>
+        <v>421115</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1995198838582928</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1830635993786297</v>
+        <v>0.1814767631698296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2202852676543769</v>
+        <v>0.2205155893667454</v>
       </c>
     </row>
     <row r="8">
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6454</v>
+        <v>6472</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0007663531097593503</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.003834303063579578</v>
+        <v>0.003845007339535752</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6440</v>
+        <v>5726</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0003944174428382345</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.001969147635364833</v>
+        <v>0.001750861407008881</v>
       </c>
     </row>
     <row r="10">
@@ -2825,19 +2825,19 @@
         <v>1449485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1418063</v>
+        <v>1417922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1478178</v>
+        <v>1479133</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8611621643018084</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8424937213611896</v>
+        <v>0.8424103573070073</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8782090921187317</v>
+        <v>0.8787763587518673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1305</v>
@@ -2846,19 +2846,19 @@
         <v>1402723</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1374910</v>
+        <v>1373033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1427953</v>
+        <v>1428944</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8837545440541057</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8662311323717686</v>
+        <v>0.8650489564603966</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.899650098889243</v>
+        <v>0.900274335607364</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2687</v>
@@ -2867,19 +2867,19 @@
         <v>2852208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2807174</v>
+        <v>2811952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2890166</v>
+        <v>2892422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8721269685460875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8583565870559862</v>
+        <v>0.8598175966203969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8837332794731271</v>
+        <v>0.8844230930540389</v>
       </c>
     </row>
     <row r="11">
@@ -2896,19 +2896,19 @@
         <v>60147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45351</v>
+        <v>44786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78117</v>
+        <v>79840</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03573401995652367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0269438177812699</v>
+        <v>0.02660829093055212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04641083713591572</v>
+        <v>0.04743410663261136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -2917,19 +2917,19 @@
         <v>36866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25780</v>
+        <v>24084</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51448</v>
+        <v>50514</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02322671880184286</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01624187792024015</v>
+        <v>0.01517339158663332</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03241390576895712</v>
+        <v>0.0318253727488793</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -2938,19 +2938,19 @@
         <v>97013</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>78760</v>
+        <v>77379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119241</v>
+        <v>119467</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02966382680781936</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02408254324749793</v>
+        <v>0.02366032968131344</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03646058443164804</v>
+        <v>0.03652969986266588</v>
       </c>
     </row>
     <row r="12">
@@ -2967,19 +2967,19 @@
         <v>172252</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>148194</v>
+        <v>147198</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>200064</v>
+        <v>198736</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1023374626319086</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08804421120615347</v>
+        <v>0.08745246441126435</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1188612658151493</v>
+        <v>0.118072222467213</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -2988,19 +2988,19 @@
         <v>147642</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>125017</v>
+        <v>124229</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>172613</v>
+        <v>174602</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09301873714405141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07876407246105301</v>
+        <v>0.07826749161529871</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1087509320968895</v>
+        <v>0.110004219448573</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>294</v>
@@ -3009,19 +3009,19 @@
         <v>319894</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>288059</v>
+        <v>283374</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>356450</v>
+        <v>356012</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09781478720325489</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08808039840992503</v>
+        <v>0.08664803933652274</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1089926746570652</v>
+        <v>0.1088586748293578</v>
       </c>
     </row>
     <row r="13">
@@ -3160,19 +3160,19 @@
         <v>399437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>384783</v>
+        <v>383339</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>411517</v>
+        <v>411393</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9098844289917568</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8765059641292284</v>
+        <v>0.8732148818492614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9374034695592459</v>
+        <v>0.9371202502957354</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>342</v>
@@ -3181,19 +3181,19 @@
         <v>378486</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>363947</v>
+        <v>364413</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>391560</v>
+        <v>391212</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8952706653688278</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8608794131800069</v>
+        <v>0.8619814150252536</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9261951765801193</v>
+        <v>0.9253726450005155</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>707</v>
@@ -3202,19 +3202,19 @@
         <v>777923</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>758566</v>
+        <v>757520</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>795914</v>
+        <v>794831</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9027152085105095</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8802527413098595</v>
+        <v>0.8790397961100195</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.92359189147667</v>
+        <v>0.9223353875520919</v>
       </c>
     </row>
     <row r="16">
@@ -3231,19 +3231,19 @@
         <v>24631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15555</v>
+        <v>15394</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37459</v>
+        <v>37892</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05610763122837283</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03543278099164217</v>
+        <v>0.03506581341993214</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0853280761221465</v>
+        <v>0.08631517645636805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3252,19 +3252,19 @@
         <v>23784</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14100</v>
+        <v>14915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36457</v>
+        <v>36591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05625767918742602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0333521658779965</v>
+        <v>0.03528008304447811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08623497560330429</v>
+        <v>0.08655145455053263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -3273,19 +3273,19 @@
         <v>48415</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35708</v>
+        <v>34602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66337</v>
+        <v>65182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0561812417594427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04143573670483065</v>
+        <v>0.04015316631997942</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07697884729843456</v>
+        <v>0.07563847637046732</v>
       </c>
     </row>
     <row r="17">
@@ -3302,19 +3302,19 @@
         <v>14929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7755</v>
+        <v>8332</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24672</v>
+        <v>24594</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03400793977987038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01766606089613927</v>
+        <v>0.01898012726228783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05620079175435071</v>
+        <v>0.05602251395308942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -3323,19 +3323,19 @@
         <v>20492</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12758</v>
+        <v>12056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31523</v>
+        <v>30688</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04847165544374614</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03017717460975695</v>
+        <v>0.02851808202123872</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07456547367151223</v>
+        <v>0.07259036501135285</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -3344,19 +3344,19 @@
         <v>35421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25393</v>
+        <v>25319</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49887</v>
+        <v>50155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04110354973004778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02946655454823515</v>
+        <v>0.02938048558079533</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05788968231459558</v>
+        <v>0.05820069995963207</v>
       </c>
     </row>
     <row r="18">
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7939</v>
+        <v>7632</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0007925001608185229</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.002735189173877139</v>
+        <v>0.002629337586068756</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7200</v>
+        <v>7516</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0003807095784608381</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00119170055884805</v>
+        <v>0.001243966784662505</v>
       </c>
     </row>
     <row r="20">
@@ -3511,19 +3511,19 @@
         <v>2409115</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2360291</v>
+        <v>2365464</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2449084</v>
+        <v>2450393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.830028868459909</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8132071452985694</v>
+        <v>0.8149895022202193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8437995932102047</v>
+        <v>0.8442508095297258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2518</v>
@@ -3532,19 +3532,19 @@
         <v>2715783</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2675515</v>
+        <v>2671703</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2754823</v>
+        <v>2750301</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8650638398247752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8522371445149497</v>
+        <v>0.8510228071435051</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8774993341932055</v>
+        <v>0.8760587465647611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4791</v>
@@ -3553,19 +3553,19 @@
         <v>5124898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5068503</v>
+        <v>5063347</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5185063</v>
+        <v>5184156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8482333710890596</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8388993940900998</v>
+        <v>0.8380458695167019</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8581914785123367</v>
+        <v>0.8580412783576702</v>
       </c>
     </row>
     <row r="21">
@@ -3582,19 +3582,19 @@
         <v>97393</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78886</v>
+        <v>78202</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121679</v>
+        <v>119781</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03355562904729987</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02717910329238809</v>
+        <v>0.02694350789549919</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04192303402884057</v>
+        <v>0.04126884934366435</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>70</v>
@@ -3603,19 +3603,19 @@
         <v>80922</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>63819</v>
+        <v>62435</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>101766</v>
+        <v>103451</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02577623562770228</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02032824914531755</v>
+        <v>0.01988750355720777</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03241579290258837</v>
+        <v>0.03295237330367065</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>154</v>
@@ -3624,19 +3624,19 @@
         <v>178315</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>151736</v>
+        <v>154283</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>209129</v>
+        <v>210350</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02951338261628721</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02511412237207844</v>
+        <v>0.02553580553283224</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03461343263721298</v>
+        <v>0.03481544621900542</v>
       </c>
     </row>
     <row r="22">
@@ -3653,19 +3653,19 @@
         <v>393639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>358854</v>
+        <v>355753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>433338</v>
+        <v>431271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1356230023319726</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1236384405984089</v>
+        <v>0.1225701342871849</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.149300812362594</v>
+        <v>0.1485886251121211</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>319</v>
@@ -3674,19 +3674,19 @@
         <v>342697</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>307481</v>
+        <v>310093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>383088</v>
+        <v>383335</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1091599245475225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09794257412832669</v>
+        <v>0.09877469829494402</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1220257328453555</v>
+        <v>0.1221046013698339</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>684</v>
@@ -3695,19 +3695,19 @@
         <v>736335</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>683727</v>
+        <v>686048</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>789126</v>
+        <v>789261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1218725367161924</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1131652280420041</v>
+        <v>0.1135493980423177</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1306100331174248</v>
+        <v>0.1306324235649259</v>
       </c>
     </row>
     <row r="23">
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7145</v>
+        <v>6150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004497042062905182</v>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01562046814343112</v>
+        <v>0.01344406731625643</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7190</v>
+        <v>7225</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001878531005728401</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006565770814110167</v>
+        <v>0.006598239183923661</v>
       </c>
     </row>
     <row r="5">
@@ -4101,19 +4101,19 @@
         <v>390284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>374359</v>
+        <v>372880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405415</v>
+        <v>404221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8532311578362052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8184149037868206</v>
+        <v>0.8151819126276816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8863106200216233</v>
+        <v>0.8836988652765421</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>503</v>
@@ -4122,19 +4122,19 @@
         <v>552725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>533575</v>
+        <v>532659</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>570545</v>
+        <v>569835</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8668792588798766</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8368458669810743</v>
+        <v>0.8354081900496688</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8948287309386765</v>
+        <v>0.8937138778067982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>898</v>
@@ -4143,19 +4143,19 @@
         <v>943009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>919342</v>
+        <v>917396</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>964655</v>
+        <v>964255</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8611780933979403</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8395650556104584</v>
+        <v>0.8377876234509848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8809453589182386</v>
+        <v>0.8805808415907137</v>
       </c>
     </row>
     <row r="6">
@@ -4172,19 +4172,19 @@
         <v>2870</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7809</v>
+        <v>7670</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006274457291751883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001902760986605706</v>
+        <v>0.001889650844643827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01707124172230686</v>
+        <v>0.01676850477441034</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10121</v>
+        <v>8512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004419373956125563</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01587401714692373</v>
+        <v>0.01334924364778719</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -4214,19 +4214,19 @@
         <v>5688</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1897</v>
+        <v>2005</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13316</v>
+        <v>14137</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005194290337924499</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001732260985885053</v>
+        <v>0.00183125279563261</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0121605890638395</v>
+        <v>0.01291052071213721</v>
       </c>
     </row>
     <row r="7">
@@ -4243,19 +4243,19 @@
         <v>62208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47790</v>
+        <v>48962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78107</v>
+        <v>79257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1359973428091378</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1044785068137912</v>
+        <v>0.1070404943757837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1707563024484497</v>
+        <v>0.1732691982303339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -4264,19 +4264,19 @@
         <v>82060</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65510</v>
+        <v>65816</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100224</v>
+        <v>102347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1287013671639978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1027435456821525</v>
+        <v>0.1032241079951146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.157188290688075</v>
+        <v>0.1605181156497036</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -4285,19 +4285,19 @@
         <v>144268</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122862</v>
+        <v>123616</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>168282</v>
+        <v>168586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1317490852584068</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1122002828242294</v>
+        <v>0.1128886181720622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1536794685956872</v>
+        <v>0.153956518824844</v>
       </c>
     </row>
     <row r="8">
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4965</v>
+        <v>4992</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0005849652388699975</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.002928297877833838</v>
+        <v>0.002944347682964671</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4942</v>
+        <v>5583</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0002913519529309946</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.001451653816244226</v>
+        <v>0.001639893258894638</v>
       </c>
     </row>
     <row r="10">
@@ -4452,19 +4452,19 @@
         <v>1502748</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1475539</v>
+        <v>1474587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1530533</v>
+        <v>1528263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8862848622983466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8702375826798744</v>
+        <v>0.8696757812063848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9026717730048121</v>
+        <v>0.9013330910027122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1459</v>
@@ -4473,19 +4473,19 @@
         <v>1512583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1484036</v>
+        <v>1483638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1537913</v>
+        <v>1538789</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8852145128282756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8685081506191734</v>
+        <v>0.8682747167969981</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9000386218795328</v>
+        <v>0.9005512999497188</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2877</v>
@@ -4494,19 +4494,19 @@
         <v>3015330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2980139</v>
+        <v>2977007</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3055764</v>
+        <v>3050827</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8857476187082528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8754101261174461</v>
+        <v>0.8744902622407222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.897624949881869</v>
+        <v>0.8961747111780368</v>
       </c>
     </row>
     <row r="11">
@@ -4523,19 +4523,19 @@
         <v>22306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13144</v>
+        <v>13673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33928</v>
+        <v>34193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01315536169076175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007752044418244623</v>
+        <v>0.008063730832019278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02001006759310323</v>
+        <v>0.02016615012770523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -4544,19 +4544,19 @@
         <v>47182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34810</v>
+        <v>33441</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63368</v>
+        <v>63141</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02761247875801016</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02037215095006591</v>
+        <v>0.01957100373864221</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03708506982942579</v>
+        <v>0.03695198150378561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -4565,19 +4565,19 @@
         <v>69488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53597</v>
+        <v>54509</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89263</v>
+        <v>87853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02041186406946636</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01574410652331601</v>
+        <v>0.01601194045387384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.026220890591748</v>
+        <v>0.02580678211487655</v>
       </c>
     </row>
     <row r="12">
@@ -4594,19 +4594,19 @@
         <v>169513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145449</v>
+        <v>145927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>194841</v>
+        <v>193847</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09997481077202164</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0857821266890606</v>
+        <v>0.08606450489818203</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1149124757921884</v>
+        <v>0.1143260184756917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>143</v>
@@ -4615,19 +4615,19 @@
         <v>148954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>126582</v>
+        <v>126088</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>174875</v>
+        <v>175042</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08717300841371424</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0740797962006547</v>
+        <v>0.0737909468397191</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1023429449915723</v>
+        <v>0.1024402579015304</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>302</v>
@@ -4636,19 +4636,19 @@
         <v>318467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>283871</v>
+        <v>286994</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>353321</v>
+        <v>352706</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09354916526934988</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08338660155476794</v>
+        <v>0.08430391829554218</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.103787264785309</v>
+        <v>0.1036068483250197</v>
       </c>
     </row>
     <row r="13">
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5802</v>
+        <v>5588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002176831836687956</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0114143409902005</v>
+        <v>0.01099265666417405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6899</v>
+        <v>6238</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001099224168529972</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006853063037338165</v>
+        <v>0.006197286809908047</v>
       </c>
     </row>
     <row r="15">
@@ -4803,19 +4803,19 @@
         <v>457148</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>442414</v>
+        <v>441728</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>468890</v>
+        <v>467856</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9173702081303414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8878046517290533</v>
+        <v>0.8864280050390145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.940933207133818</v>
+        <v>0.9388590437644153</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>430</v>
@@ -4824,19 +4824,19 @@
         <v>445773</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>427563</v>
+        <v>427280</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>458677</v>
+        <v>459863</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8769541635820204</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8411305311712949</v>
+        <v>0.8405724706568803</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9023394960351848</v>
+        <v>0.9046719771889962</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>850</v>
@@ -4845,19 +4845,19 @@
         <v>902920</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>882505</v>
+        <v>879330</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>920395</v>
+        <v>921481</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8969615149942225</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8766810305926872</v>
+        <v>0.8735269758679711</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9143212407125532</v>
+        <v>0.9154003047895605</v>
       </c>
     </row>
     <row r="16">
@@ -4874,19 +4874,19 @@
         <v>26827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17424</v>
+        <v>17188</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40250</v>
+        <v>39088</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05383410199546003</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03496618786364422</v>
+        <v>0.03449140792442544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08077153618073443</v>
+        <v>0.07843863870000245</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -4895,19 +4895,19 @@
         <v>38393</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27578</v>
+        <v>27230</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52464</v>
+        <v>53188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07552865677304278</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05425381918426905</v>
+        <v>0.05356834735532381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1032099918174368</v>
+        <v>0.1046355583345514</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -4916,19 +4916,19 @@
         <v>65219</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50814</v>
+        <v>50419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81935</v>
+        <v>84113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06478909564039852</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05047856342954828</v>
+        <v>0.05008603733576154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08139383544558718</v>
+        <v>0.08355789746324827</v>
       </c>
     </row>
     <row r="17">
@@ -4945,19 +4945,19 @@
         <v>14350</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8322</v>
+        <v>7819</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22747</v>
+        <v>24132</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02879568987419859</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01669986699324368</v>
+        <v>0.01569145463176689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04564684772190446</v>
+        <v>0.04842665069374343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -4966,19 +4966,19 @@
         <v>23047</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15517</v>
+        <v>14909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36215</v>
+        <v>35033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0453403478082489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03052616643462159</v>
+        <v>0.02932994242625414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07124472710300679</v>
+        <v>0.06891825863938887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -4987,19 +4987,19 @@
         <v>37397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26850</v>
+        <v>25928</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51552</v>
+        <v>51170</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03715016519684898</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02667235940441054</v>
+        <v>0.02575640486282281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05121184410239758</v>
+        <v>0.05083208020989929</v>
       </c>
     </row>
     <row r="18">
@@ -5091,19 +5091,19 @@
         <v>3049</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9110</v>
+        <v>8136</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001149954636573221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0003727877233056883</v>
+        <v>0.0003730254815727007</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003435931296770894</v>
+        <v>0.00306882668369948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5541</v>
+        <v>5420</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0003876236731444195</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.001941070754504395</v>
+        <v>0.001898522961467007</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -5133,19 +5133,19 @@
         <v>4155</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1105</v>
+        <v>1022</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11367</v>
+        <v>10394</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0007547123130193832</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0002006073416580091</v>
+        <v>0.0001855296007448438</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002064526730886927</v>
+        <v>0.001887801090414777</v>
       </c>
     </row>
     <row r="20">
@@ -5162,19 +5162,19 @@
         <v>2350180</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2315070</v>
+        <v>2317492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2381817</v>
+        <v>2383111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8864248540300134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8731822573265836</v>
+        <v>0.8740958773461711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8983573944017031</v>
+        <v>0.8988455342234405</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2392</v>
@@ -5183,19 +5183,19 @@
         <v>2511081</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2472269</v>
+        <v>2472673</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2542777</v>
+        <v>2543191</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8796483099448795</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8660520577462295</v>
+        <v>0.8661938786159349</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8907515915399588</v>
+        <v>0.8908966557213892</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4625</v>
@@ -5204,19 +5204,19 @@
         <v>4861260</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4807711</v>
+        <v>4813583</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4905930</v>
+        <v>4911175</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8829114495398868</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8731857344610782</v>
+        <v>0.8742522820674062</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.891024484322025</v>
+        <v>0.8919770979124807</v>
       </c>
     </row>
     <row r="21">
@@ -5233,19 +5233,19 @@
         <v>52003</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38555</v>
+        <v>36934</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>68077</v>
+        <v>68351</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01961396974404443</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01454197233481249</v>
+        <v>0.01393047144187065</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02567664859087492</v>
+        <v>0.02578026755957937</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>81</v>
@@ -5254,19 +5254,19 @@
         <v>88392</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>72207</v>
+        <v>70085</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>110776</v>
+        <v>107323</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03096447372076805</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02529450724570802</v>
+        <v>0.02455131665306431</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03880563122087471</v>
+        <v>0.0375959461197918</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>128</v>
@@ -5275,19 +5275,19 @@
         <v>140395</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118159</v>
+        <v>116350</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166074</v>
+        <v>165565</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0254988147529489</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02146023936096652</v>
+        <v>0.02113163519629591</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03016276542763911</v>
+        <v>0.03007030989900309</v>
       </c>
     </row>
     <row r="22">
@@ -5304,19 +5304,19 @@
         <v>246071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>215627</v>
+        <v>215272</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>278711</v>
+        <v>275562</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09281122158936894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08132890560135023</v>
+        <v>0.08119469934498884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1051223191422703</v>
+        <v>0.1039345616860018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>241</v>
@@ -5325,19 +5325,19 @@
         <v>254062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>222953</v>
+        <v>225881</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>289175</v>
+        <v>286172</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08899959266120799</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07810191444414954</v>
+        <v>0.07912764051322072</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.101299979076139</v>
+        <v>0.1002480635135854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>475</v>
@@ -5346,19 +5346,19 @@
         <v>500132</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>459412</v>
+        <v>458166</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>548488</v>
+        <v>547913</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09083502339414497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0834393063519121</v>
+        <v>0.08321307689938101</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09961743537739817</v>
+        <v>0.09951304290734772</v>
       </c>
     </row>
     <row r="23">
@@ -5736,19 +5736,19 @@
         <v>438869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>420624</v>
+        <v>421079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455173</v>
+        <v>453720</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8186401934047407</v>
+        <v>0.8186401934047405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7846070186192908</v>
+        <v>0.7854562367844221</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8490524273512482</v>
+        <v>0.8463423628788662</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1207</v>
@@ -5757,19 +5757,19 @@
         <v>688923</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>674094</v>
+        <v>674089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>702319</v>
+        <v>702461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8759980686219614</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8571419215129915</v>
+        <v>0.8571358717673077</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8930305311259128</v>
+        <v>0.8932113451114327</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1733</v>
@@ -5778,19 +5778,19 @@
         <v>1127792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1104012</v>
+        <v>1106566</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1149864</v>
+        <v>1150345</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8527478888894972</v>
+        <v>0.852747888889497</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8347669480840486</v>
+        <v>0.836698386071496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8694364205949674</v>
+        <v>0.8698003357124873</v>
       </c>
     </row>
     <row r="6">
@@ -5807,19 +5807,19 @@
         <v>4435</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1714</v>
+        <v>1771</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9819</v>
+        <v>10620</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.008272535572052686</v>
+        <v>0.008272535572052682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003196588617597564</v>
+        <v>0.003304190767147317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01831591940639818</v>
+        <v>0.01980993998950042</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -5828,19 +5828,19 @@
         <v>5068</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2370</v>
+        <v>2482</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10792</v>
+        <v>9847</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006444402452924478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003013125250356912</v>
+        <v>0.003155641607055343</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01372198027585745</v>
+        <v>0.0125215230916114</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -5849,19 +5849,19 @@
         <v>9503</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5600</v>
+        <v>5245</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16903</v>
+        <v>15821</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.007185441472128599</v>
+        <v>0.007185441472128597</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004234527853376152</v>
+        <v>0.003965515163448033</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01278059366656546</v>
+        <v>0.01196226159251695</v>
       </c>
     </row>
     <row r="7">
@@ -5878,19 +5878,19 @@
         <v>92791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77517</v>
+        <v>77823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110677</v>
+        <v>110887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1730872710232067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1445961391592895</v>
+        <v>0.1451672711528177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2064509730226363</v>
+        <v>0.2068418819045593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -5899,19 +5899,19 @@
         <v>92452</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78652</v>
+        <v>78477</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107914</v>
+        <v>105472</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.117557528925114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1000096610949982</v>
+        <v>0.09978772581308329</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1372182472506414</v>
+        <v>0.1341127194540329</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>274</v>
@@ -5920,19 +5920,19 @@
         <v>185244</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164335</v>
+        <v>163985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>208238</v>
+        <v>205704</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1400666696383744</v>
+        <v>0.1400666696383743</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.124257539694584</v>
+        <v>0.1239928953077625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1574535247209514</v>
+        <v>0.1555372853585725</v>
       </c>
     </row>
     <row r="8">
@@ -6071,19 +6071,19 @@
         <v>1944862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1908029</v>
+        <v>1908611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1975107</v>
+        <v>1973862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.90611293816973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8889523991669135</v>
+        <v>0.8892236194948305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.920204058708093</v>
+        <v>0.9196240432303291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2695</v>
@@ -6092,19 +6092,19 @@
         <v>1989270</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1967058</v>
+        <v>1967538</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2008367</v>
+        <v>2008457</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9429187632832206</v>
+        <v>0.9429187632832207</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9323899938990861</v>
+        <v>0.932617940733599</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9519706636313681</v>
+        <v>0.9520136352394063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4446</v>
@@ -6113,19 +6113,19 @@
         <v>3934132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3892448</v>
+        <v>3888209</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3971854</v>
+        <v>3969194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.92435722627572</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9145632904338562</v>
+        <v>0.9135672091721934</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9332203052538885</v>
+        <v>0.9325953170860324</v>
       </c>
     </row>
     <row r="11">
@@ -6142,19 +6142,19 @@
         <v>27782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18003</v>
+        <v>16984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43425</v>
+        <v>43519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01294380068929157</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008387574998009255</v>
+        <v>0.007912940336544216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02023155627430535</v>
+        <v>0.02027555041276344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -6163,19 +6163,19 @@
         <v>17465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10086</v>
+        <v>10584</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27737</v>
+        <v>29657</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008278646327883101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004780590033026117</v>
+        <v>0.005016699054887824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01314718262015311</v>
+        <v>0.01405739966405212</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -6184,19 +6184,19 @@
         <v>45248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32681</v>
+        <v>31879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63347</v>
+        <v>63690</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01063132922679867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00767875618321469</v>
+        <v>0.007490212232073011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01488389073406719</v>
+        <v>0.01496454071917848</v>
       </c>
     </row>
     <row r="12">
@@ -6213,19 +6213,19 @@
         <v>173735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>146593</v>
+        <v>147909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>208485</v>
+        <v>210152</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08094326114097841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06829763798080039</v>
+        <v>0.06891102352498427</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09713355854886221</v>
+        <v>0.09790992118402393</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -6234,19 +6234,19 @@
         <v>102959</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85086</v>
+        <v>86682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121390</v>
+        <v>124100</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0488025903888964</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04033117675294456</v>
+        <v>0.04108767803667641</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05753925791300946</v>
+        <v>0.05882347342753155</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>283</v>
@@ -6255,19 +6255,19 @@
         <v>276693</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>240649</v>
+        <v>244382</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>316384</v>
+        <v>319397</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06501144449748146</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0565424822314262</v>
+        <v>0.05741961900513437</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07433696520122587</v>
+        <v>0.0750450172159263</v>
       </c>
     </row>
     <row r="13">
@@ -6406,19 +6406,19 @@
         <v>650819</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>631784</v>
+        <v>633695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>664462</v>
+        <v>665155</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9260462523511905</v>
+        <v>0.9260462523511908</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8989619940044008</v>
+        <v>0.9016810247296744</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9454588639975802</v>
+        <v>0.946445601836499</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>938</v>
@@ -6427,19 +6427,19 @@
         <v>688642</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>677179</v>
+        <v>677061</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>698342</v>
+        <v>698569</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.9479686523264728</v>
+        <v>0.9479686523264725</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.9321887999483649</v>
+        <v>0.9320263851926669</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9613207574985716</v>
+        <v>0.9616329466268136</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1564</v>
@@ -6448,19 +6448,19 @@
         <v>1339461</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1318902</v>
+        <v>1317859</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1357565</v>
+        <v>1356748</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.9371888147019978</v>
+        <v>0.9371888147019977</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.9228043804080823</v>
+        <v>0.922074562852653</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.949855324127949</v>
+        <v>0.9492837207048862</v>
       </c>
     </row>
     <row r="16">
@@ -6477,19 +6477,19 @@
         <v>29320</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18948</v>
+        <v>19613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44679</v>
+        <v>43415</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04171992058661143</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02696029483272189</v>
+        <v>0.02790757003591764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06357318595971896</v>
+        <v>0.06177487643534782</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -6498,19 +6498,19 @@
         <v>21919</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14981</v>
+        <v>14450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31446</v>
+        <v>30920</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03017383128640228</v>
+        <v>0.03017383128640227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02062235971027686</v>
+        <v>0.01989110774186693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04328728621579806</v>
+        <v>0.04256385789186979</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -6519,19 +6519,19 @@
         <v>51240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38000</v>
+        <v>37955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67695</v>
+        <v>67950</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03585135600971175</v>
+        <v>0.03585135600971174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02658774234436653</v>
+        <v>0.02655610943576331</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04736479635039627</v>
+        <v>0.04754296268031562</v>
       </c>
     </row>
     <row r="17">
@@ -6548,19 +6548,19 @@
         <v>22654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13655</v>
+        <v>13545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38058</v>
+        <v>36824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03223382706219798</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01942992702995831</v>
+        <v>0.01927361616275359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05415206476542114</v>
+        <v>0.0523971539411596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -6569,19 +6569,19 @@
         <v>15878</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9631</v>
+        <v>10324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23863</v>
+        <v>25799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02185751638712507</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.013257522444507</v>
+        <v>0.01421130264916516</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03284939320261285</v>
+        <v>0.03551367698227739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -6590,19 +6590,19 @@
         <v>38532</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26977</v>
+        <v>27795</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54328</v>
+        <v>53846</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02695982928829059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0188750167822784</v>
+        <v>0.01944758612940893</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03801231427817601</v>
+        <v>0.03767447346717358</v>
       </c>
     </row>
     <row r="18">
@@ -6741,19 +6741,19 @@
         <v>3034550</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2990358</v>
+        <v>2989954</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3070887</v>
+        <v>3072928</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8963988721267784</v>
+        <v>0.8963988721267782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8833449274600953</v>
+        <v>0.8832255262440444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9071329683226528</v>
+        <v>0.9077358843636206</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4840</v>
@@ -6762,19 +6762,19 @@
         <v>3366836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3338380</v>
+        <v>3338525</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3393737</v>
+        <v>3392536</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9294032722121632</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9215480438688849</v>
+        <v>0.9215881289890336</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.936829130822535</v>
+        <v>0.9364977234451298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7743</v>
@@ -6783,19 +6783,19 @@
         <v>6401385</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6353229</v>
+        <v>6351334</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6448268</v>
+        <v>6449473</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9134598975478027</v>
+        <v>0.9134598975478028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9065881619245152</v>
+        <v>0.9063177465194399</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9201499696347114</v>
+        <v>0.9203218699063319</v>
       </c>
     </row>
     <row r="21">
@@ -6812,19 +6812,19 @@
         <v>61538</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45504</v>
+        <v>45710</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81813</v>
+        <v>82563</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01817807090744613</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01344191771151391</v>
+        <v>0.01350260932468112</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02416751211584865</v>
+        <v>0.02438889301602272</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>60</v>
@@ -6833,19 +6833,19 @@
         <v>44453</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33646</v>
+        <v>34173</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58178</v>
+        <v>58920</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01227111144669903</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009287822984664689</v>
+        <v>0.009433473733539298</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01605977452293254</v>
+        <v>0.01626459046538837</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -6854,19 +6854,19 @@
         <v>105991</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>86550</v>
+        <v>85256</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128914</v>
+        <v>127042</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01512457545653522</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01235042913514929</v>
+        <v>0.01216584862749735</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01839574061871939</v>
+        <v>0.01812859476486636</v>
       </c>
     </row>
     <row r="22">
@@ -6883,19 +6883,19 @@
         <v>289180</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>255236</v>
+        <v>256065</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>328714</v>
+        <v>331477</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08542305696577564</v>
+        <v>0.08542305696577562</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07539609103231876</v>
+        <v>0.07564112934156447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09710121479960437</v>
+        <v>0.09791758309917188</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>313</v>
@@ -6904,19 +6904,19 @@
         <v>211289</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186967</v>
+        <v>188049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>237070</v>
+        <v>234886</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05832561634113766</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05161165470979067</v>
+        <v>0.05191038387053967</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0654424123432833</v>
+        <v>0.06483950795287627</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>599</v>
@@ -6925,19 +6925,19 @@
         <v>500469</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>455241</v>
+        <v>456374</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>541556</v>
+        <v>547200</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07141552699566212</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06496161730522337</v>
+        <v>0.0651233343331631</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07727851632988714</v>
+        <v>0.07808392729099248</v>
       </c>
     </row>
     <row r="23">
